--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_142__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_142__Reeval_LHS_Modell_1.1.xlsx
@@ -5876,7 +5876,7 @@
                   <c:v>9.79241943359375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.78974151611328</c:v>
+                  <c:v>18.78974342346191</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>19.79862403869629</c:v>
@@ -5888,31 +5888,31 @@
                   <c:v>34.22627258300781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.02861404418945</c:v>
+                  <c:v>25.02861213684082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.09879875183105</c:v>
+                  <c:v>17.09879684448242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.349376201629639</c:v>
+                  <c:v>-1.34937858581543</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15.17428493499756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.14226245880127</c:v>
+                  <c:v>11.14226341247559</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.27980804443359</c:v>
+                  <c:v>27.27980613708496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.46350193023682</c:v>
+                  <c:v>14.46350002288818</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>35.15337371826172</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.5880241394043</c:v>
+                  <c:v>22.58802223205566</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>19.59512901306152</c:v>
@@ -5921,7 +5921,7 @@
                   <c:v>33.72832489013672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.058343887329102</c:v>
+                  <c:v>6.058346271514893</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>35.91010284423828</c:v>
@@ -5951,7 +5951,7 @@
                   <c:v>21.20234298706055</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.961828231811523</c:v>
+                  <c:v>9.961827278137207</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>8.939244270324707</c:v>
@@ -5960,7 +5960,7 @@
                   <c:v>23.82586669921875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.32674503326416</c:v>
+                  <c:v>15.32674598693848</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>22.06949806213379</c:v>
@@ -5972,16 +5972,16 @@
                   <c:v>8.869065284729004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.09576797485352</c:v>
+                  <c:v>16.09576606750488</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>21.67586517333984</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.57664394378662</c:v>
+                  <c:v>11.57664680480957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.43908882141113</c:v>
+                  <c:v>10.43908977508545</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>24.16668891906738</c:v>
@@ -5996,7 +5996,7 @@
                   <c:v>27.92884063720703</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.76243782043457</c:v>
+                  <c:v>28.76244163513184</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>15.43140316009521</c:v>
@@ -6008,16 +6008,16 @@
                   <c:v>21.76876068115234</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.25440311431885</c:v>
+                  <c:v>13.25440406799316</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>25.03462409973145</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>24.40358352661133</c:v>
+                  <c:v>24.40357971191406</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.62867164611816</c:v>
+                  <c:v>31.6286678314209</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11.84713459014893</c:v>
@@ -6026,7 +6026,7 @@
                   <c:v>16.93840599060059</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.89803695678711</c:v>
+                  <c:v>10.89803409576416</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>26.72373962402344</c:v>
@@ -6038,28 +6038,28 @@
                   <c:v>21.11062049865723</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15.72629165649414</c:v>
+                  <c:v>15.72629261016846</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>23.20359992980957</c:v>
+                  <c:v>23.20359802246094</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>20.88206100463867</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12.22042846679688</c:v>
+                  <c:v>12.22042751312256</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14.35506916046143</c:v>
+                  <c:v>14.35507106781006</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>18.58135414123535</c:v>
+                  <c:v>18.58135223388672</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>20.53520202636719</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12.75955295562744</c:v>
+                  <c:v>12.75955486297607</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>22.56559181213379</c:v>
@@ -6086,7 +6086,7 @@
                   <c:v>25.72925567626953</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>38.37281036376953</c:v>
+                  <c:v>38.37280654907227</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>26.84884071350098</c:v>
@@ -6125,7 +6125,7 @@
                   <c:v>9.738615989685059</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>22.6162223815918</c:v>
+                  <c:v>22.61622428894043</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>20.96864891052246</c:v>
@@ -6134,13 +6134,13 @@
                   <c:v>18.041748046875</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>23.10344886779785</c:v>
+                  <c:v>23.10344505310059</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>22.29639625549316</c:v>
+                  <c:v>22.29640197753906</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>16.95188331604004</c:v>
+                  <c:v>16.95188522338867</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>13.07007694244385</c:v>
@@ -6155,7 +6155,7 @@
                   <c:v>8.847234725952148</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.03348827362061</c:v>
+                  <c:v>12.03348731994629</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>25.03688430786133</c:v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>18.78974151611328</v>
+        <v>18.78974342346191</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.02861404418945</v>
+        <v>25.02861213684082</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.09879875183105</v>
+        <v>17.09879684448242</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-1.349376201629639</v>
+        <v>-1.34937858581543</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.14226245880127</v>
+        <v>11.14226341247559</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.27980804443359</v>
+        <v>27.27980613708496</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>14.46350193023682</v>
+        <v>14.46350002288818</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.5880241394043</v>
+        <v>22.58802223205566</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6.058343887329102</v>
+        <v>6.058346271514893</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>9.961828231811523</v>
+        <v>9.961827278137207</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>15.32674503326416</v>
+        <v>15.32674598693848</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>16.09576797485352</v>
+        <v>16.09576606750488</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>11.57664394378662</v>
+        <v>11.57664680480957</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>10.43908882141113</v>
+        <v>10.43908977508545</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>28.76243782043457</v>
+        <v>28.76244163513184</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>13.25440311431885</v>
+        <v>13.25440406799316</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>24.40358352661133</v>
+        <v>24.40357971191406</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>31.62867164611816</v>
+        <v>31.6286678314209</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>10.89803695678711</v>
+        <v>10.89803409576416</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>15.72629165649414</v>
+        <v>15.72629261016846</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>23.20359992980957</v>
+        <v>23.20359802246094</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>12.22042846679688</v>
+        <v>12.22042751312256</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>14.35506916046143</v>
+        <v>14.35507106781006</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>18.58135414123535</v>
+        <v>18.58135223388672</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>12.75955295562744</v>
+        <v>12.75955486297607</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>38.37281036376953</v>
+        <v>38.37280654907227</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>22.6162223815918</v>
+        <v>22.61622428894043</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>23.10344886779785</v>
+        <v>23.10344505310059</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>22.29639625549316</v>
+        <v>22.29640197753906</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>16.95188331604004</v>
+        <v>16.95188522338867</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>12.03348827362061</v>
+        <v>12.03348731994629</v>
       </c>
     </row>
     <row r="97" spans="1:6">
